--- a/instructions/Warming-up-final.xlsx
+++ b/instructions/Warming-up-final.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\muzam\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\IGBot\instructions\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14505" windowHeight="4815" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14505" windowHeight="4815"/>
   </bookViews>
   <sheets>
     <sheet name="prod" sheetId="1" r:id="rId1"/>
@@ -368,8 +368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:M32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:M32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -421,13 +421,13 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I3">
         <v>10</v>
       </c>
       <c r="J3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L3">
         <f>M3*60</f>
@@ -455,13 +455,13 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I4">
         <v>10</v>
       </c>
       <c r="J4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="L4">
         <f t="shared" ref="L4:L32" si="1">M4*60</f>
@@ -489,13 +489,13 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="I5">
         <v>20</v>
       </c>
       <c r="J5">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="L5">
         <f t="shared" si="1"/>
@@ -523,13 +523,13 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="I6">
         <v>30</v>
       </c>
       <c r="J6">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="L6">
         <f t="shared" si="1"/>
@@ -557,13 +557,13 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="I7">
         <v>50</v>
       </c>
       <c r="J7">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="L7">
         <f t="shared" si="1"/>
@@ -591,13 +591,13 @@
         <v>1</v>
       </c>
       <c r="H8">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="I8">
         <v>75</v>
       </c>
       <c r="J8">
-        <v>75</v>
+        <v>13</v>
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
@@ -625,13 +625,13 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="I9">
         <v>100</v>
       </c>
       <c r="J9">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="L9">
         <f t="shared" si="1"/>
@@ -659,13 +659,13 @@
         <v>1</v>
       </c>
       <c r="H10">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="I10">
         <v>110</v>
       </c>
       <c r="J10">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="L10">
         <f t="shared" si="1"/>
@@ -693,13 +693,13 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="I11">
         <v>120</v>
       </c>
       <c r="J11">
-        <v>120</v>
+        <v>22</v>
       </c>
       <c r="L11">
         <f t="shared" si="1"/>
@@ -727,13 +727,13 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="I12">
         <v>130</v>
       </c>
       <c r="J12">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="L12">
         <f t="shared" si="1"/>
@@ -761,13 +761,13 @@
         <v>1</v>
       </c>
       <c r="H13">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="I13">
         <v>140</v>
       </c>
       <c r="J13">
-        <v>140</v>
+        <v>24</v>
       </c>
       <c r="L13">
         <f t="shared" si="1"/>
@@ -795,13 +795,13 @@
         <v>1</v>
       </c>
       <c r="H14">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="I14">
         <v>150</v>
       </c>
       <c r="J14">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="L14">
         <f t="shared" si="1"/>
@@ -829,13 +829,13 @@
         <v>1</v>
       </c>
       <c r="H15">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="I15">
         <v>150</v>
       </c>
       <c r="J15">
-        <v>150</v>
+        <v>26</v>
       </c>
       <c r="L15">
         <f t="shared" si="1"/>
@@ -863,13 +863,13 @@
         <v>1</v>
       </c>
       <c r="H16">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="I16">
         <v>150</v>
       </c>
       <c r="J16">
-        <v>150</v>
+        <v>27</v>
       </c>
       <c r="L16">
         <f t="shared" si="1"/>
@@ -897,13 +897,13 @@
         <v>1</v>
       </c>
       <c r="H17">
-        <v>190</v>
+        <v>90</v>
       </c>
       <c r="I17">
         <v>190</v>
       </c>
       <c r="J17">
-        <v>190</v>
+        <v>28</v>
       </c>
       <c r="L17">
         <f t="shared" si="1"/>
@@ -931,13 +931,13 @@
         <v>2</v>
       </c>
       <c r="H18">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="I18">
         <v>65</v>
       </c>
       <c r="J18">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="L18">
         <f t="shared" si="1"/>
@@ -965,13 +965,13 @@
         <v>2</v>
       </c>
       <c r="H19">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="I19">
         <v>75</v>
       </c>
       <c r="J19">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="L19">
         <f t="shared" si="1"/>
@@ -999,13 +999,13 @@
         <v>2</v>
       </c>
       <c r="H20">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="I20">
         <v>85</v>
       </c>
       <c r="J20">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="L20">
         <f t="shared" si="1"/>
@@ -1033,13 +1033,13 @@
         <v>2</v>
       </c>
       <c r="H21">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="I21">
         <v>95</v>
       </c>
       <c r="J21">
-        <v>95</v>
+        <v>11</v>
       </c>
       <c r="L21">
         <f t="shared" si="1"/>
@@ -1067,13 +1067,13 @@
         <v>2</v>
       </c>
       <c r="H22">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="I22">
         <v>105</v>
       </c>
       <c r="J22">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="L22">
         <f t="shared" si="1"/>
@@ -1101,13 +1101,13 @@
         <v>2</v>
       </c>
       <c r="H23">
-        <v>115</v>
+        <v>35</v>
       </c>
       <c r="I23">
         <v>115</v>
       </c>
       <c r="J23">
-        <v>115</v>
+        <v>15</v>
       </c>
       <c r="L23">
         <f t="shared" si="1"/>
@@ -1135,13 +1135,13 @@
         <v>2</v>
       </c>
       <c r="H24">
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="I24">
         <v>125</v>
       </c>
       <c r="J24">
-        <v>125</v>
+        <v>20</v>
       </c>
       <c r="L24">
         <f t="shared" si="1"/>
@@ -1169,13 +1169,13 @@
         <v>2</v>
       </c>
       <c r="H25">
-        <v>135</v>
+        <v>55</v>
       </c>
       <c r="I25">
         <v>135</v>
       </c>
       <c r="J25">
-        <v>135</v>
+        <v>23</v>
       </c>
       <c r="L25">
         <f t="shared" si="1"/>
@@ -1203,13 +1203,13 @@
         <v>2</v>
       </c>
       <c r="H26">
-        <v>145</v>
+        <v>60</v>
       </c>
       <c r="I26">
         <v>145</v>
       </c>
       <c r="J26">
-        <v>145</v>
+        <v>25</v>
       </c>
       <c r="L26">
         <f t="shared" si="1"/>
@@ -1237,13 +1237,13 @@
         <v>2</v>
       </c>
       <c r="H27">
-        <v>155</v>
+        <v>70</v>
       </c>
       <c r="I27">
         <v>155</v>
       </c>
       <c r="J27">
-        <v>155</v>
+        <v>28</v>
       </c>
       <c r="L27">
         <f t="shared" si="1"/>
@@ -1271,13 +1271,13 @@
         <v>2</v>
       </c>
       <c r="H28">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="I28">
         <v>170</v>
       </c>
       <c r="J28">
-        <v>170</v>
+        <v>30</v>
       </c>
       <c r="L28">
         <f t="shared" si="1"/>
@@ -1305,13 +1305,13 @@
         <v>2</v>
       </c>
       <c r="H29">
-        <v>190</v>
+        <v>90</v>
       </c>
       <c r="I29">
         <v>190</v>
       </c>
       <c r="J29">
-        <v>190</v>
+        <v>33</v>
       </c>
       <c r="L29">
         <f t="shared" si="1"/>
@@ -1339,13 +1339,13 @@
         <v>2</v>
       </c>
       <c r="H30">
-        <v>190</v>
+        <v>100</v>
       </c>
       <c r="I30">
         <v>190</v>
       </c>
       <c r="J30">
-        <v>190</v>
+        <v>35</v>
       </c>
       <c r="L30">
         <f t="shared" si="1"/>
@@ -1373,13 +1373,13 @@
         <v>2</v>
       </c>
       <c r="H31">
-        <v>190</v>
+        <v>110</v>
       </c>
       <c r="I31">
         <v>190</v>
       </c>
       <c r="J31">
-        <v>190</v>
+        <v>38</v>
       </c>
       <c r="L31">
         <f t="shared" si="1"/>
@@ -1407,13 +1407,13 @@
         <v>2</v>
       </c>
       <c r="H32">
-        <v>230</v>
+        <v>120</v>
       </c>
       <c r="I32">
         <v>230</v>
       </c>
       <c r="J32">
-        <v>230</v>
+        <v>40</v>
       </c>
       <c r="L32">
         <f t="shared" si="1"/>
@@ -1433,7 +1433,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
